--- a/data/trans_dic/P14_1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P14_1-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de la garganta o nariz)</t>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de la garganta o nariz) (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>17,79%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 7,02</t>
+          <t>0,73; 7,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,45; 19,73</t>
+          <t>11,09; 21,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,22</t>
+          <t>0,47; 4,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,09; 22,28</t>
+          <t>14,73; 24,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,66</t>
+          <t>0,8; 4,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,17; 19,57</t>
+          <t>14,56; 21,37</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>21,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>19,25%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,43</t>
+          <t>1,11; 4,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,15; 22,18</t>
+          <t>13,68; 21,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,05; 8,2</t>
+          <t>3,28; 10,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,41; 25,87</t>
+          <t>17,86; 24,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,27</t>
+          <t>2,59; 6,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,22; 22,78</t>
+          <t>16,84; 22,09</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>26,74%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>27,5%</t>
+          <t>27,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,48%</t>
+          <t>26,96%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,65</t>
+          <t>1,01; 4,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,75; 30,21</t>
+          <t>22,18; 31,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 4,03</t>
+          <t>1,6; 5,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,05; 31,77</t>
+          <t>22,99; 31,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 3,91</t>
+          <t>1,75; 4,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,86; 29,75</t>
+          <t>23,9; 30,29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>20,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>21,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>20,89%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,44</t>
+          <t>1,56; 4,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,74; 22,3</t>
+          <t>15,67; 26,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,15</t>
+          <t>1,63; 4,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,72; 24,82</t>
+          <t>17,4; 26,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,85</t>
+          <t>1,9; 3,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,93; 23,02</t>
+          <t>17,76; 24,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20,02%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,51%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>22,63%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3,08%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>21,35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1,84; 3,78</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>17,64; 22,53</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,57; 5,03</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20,51; 24,67</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,49; 4,04</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>19,91; 22,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de la garganta o nariz) (tasa de respuesta: 99,97%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8597</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>83473</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7664</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>124518</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16261</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>207991</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2462; 25408</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>58779; 111451</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1997; 20888</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>94070; 157543</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6105; 33258</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>170196; 249751</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>22943</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>204595</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>56397</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>264709</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>79340</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>469304</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10340; 45659</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>165130; 256285</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>32760; 103708</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>219949; 304745</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>50144; 124825</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>410677; 538565</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>17769</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>226146</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>23981</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>255670</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>41750</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>481816</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7203; 34555</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>187561; 270234</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12288; 42088</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>216511; 294290</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>25943; 63570</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>427175; 541428</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>40954</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>175132</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>38211</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>162269</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>79165</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>337401</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>22695; 68655</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>134778; 224751</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>22928; 64803</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>131372; 197693</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>54394; 111061</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>286815; 400159</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>376.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>650.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>90263</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>689346</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>126253</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>807166</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>216516</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1496512</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>63539; 130252</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>607407; 775597</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>92430; 180703</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>731375; 879931</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>175281; 284504</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1395632; 1608391</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>